--- a/software/software_info_list.xlsx
+++ b/software/software_info_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fantastic-lin/Documents/Andrew/aet21.github.io-master/software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88899B5F-2454-D94D-AA36-5EF42F052580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592F7429-38BB-DA4D-9A6D-6CDB2B9C2171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="1300" windowWidth="36580" windowHeight="17400" xr2:uid="{85F61867-7DCB-5C4B-8FF5-E6FC3FE67B4E}"/>
+    <workbookView xWindow="4700" yWindow="1200" windowWidth="29420" windowHeight="17400" xr2:uid="{85F61867-7DCB-5C4B-8FF5-E6FC3FE67B4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,6 @@
     <t>EpiDISH is a R-package to infer the proportions of a priori known cell-types present in a sample representing a mixture of such cell-types.</t>
   </si>
   <si>
-    <t>scira is an R-package aimed at estimating regulatory differentiation activity of transcription factors in scRNA-Seq data.</t>
-  </si>
-  <si>
     <t xml:space="preserve">SCENT is an R-package to provide a means of estimating the differentiation potency of single cells without the need to assume prior biological knowledge such as marker expression or timepoint. </t>
   </si>
   <si>
@@ -182,9 +179,6 @@
     <t>Github</t>
   </si>
   <si>
-    <t>BMDC</t>
-  </si>
-  <si>
     <t>Souceforge</t>
   </si>
   <si>
@@ -351,6 +345,12 @@
   </si>
   <si>
     <t>tensorICA.png</t>
+  </si>
+  <si>
+    <t>SCIRA is an R-package aimed at estimating regulatory differentiation activity of transcription factors in scRNA-Seq data.</t>
+  </si>
+  <si>
+    <t>BioMed Big Data Center</t>
   </si>
 </sst>
 </file>
@@ -735,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237B377F-A4DA-B042-A6FA-A0913EF09262}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -749,28 +749,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s">
         <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I1" t="s">
         <v>26</v>
@@ -778,10 +778,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -790,13 +790,13 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -807,10 +807,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -819,13 +819,13 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
@@ -836,10 +836,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
         <v>24</v>
@@ -859,10 +859,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I5" t="s">
         <v>28</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -894,21 +894,21 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -917,21 +917,21 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -940,21 +940,21 @@
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -963,21 +963,21 @@
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -986,21 +986,21 @@
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -1009,27 +1009,27 @@
         <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -1038,21 +1038,21 @@
         <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -1061,21 +1061,21 @@
         <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -1084,44 +1084,44 @@
         <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" t="s">
         <v>40</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -1130,21 +1130,21 @@
         <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -1153,21 +1153,21 @@
         <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -1176,13 +1176,13 @@
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
